--- a/medicine/Enfance/Aurélie_Neyret/Aurélie_Neyret.xlsx
+++ b/medicine/Enfance/Aurélie_Neyret/Aurélie_Neyret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aur%C3%A9lie_Neyret</t>
+          <t>Aurélie_Neyret</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aurélie Neyret, née le 24 mai 1983, est une illustratrice et dessinatrice de bande dessinée française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aur%C3%A9lie_Neyret</t>
+          <t>Aurélie_Neyret</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a suivi des cours à l'École Émile Cohl mais interrompt son cursus et se forme en autodidacte. Elle a collaboré avec la presse, en particulier les publications jeunesse. Elle participe à des albums collectifs puis, avec Joris Chamblain, publie son premier ouvrage : Les Carnets de Cerise, à partir de 2012[1]. La série rencontre un grand succès critique et remporte notamment le Prix Jeunesse lors du Festival international de la bande dessinée d'Angoulême en 2014[2].
-En février 2016, Aurélie Neyret refuse sa nomination dans l’ordre des Arts et des Lettres[3], comme trois autres auteures de bandes dessinées.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a suivi des cours à l'École Émile Cohl mais interrompt son cursus et se forme en autodidacte. Elle a collaboré avec la presse, en particulier les publications jeunesse. Elle participe à des albums collectifs puis, avec Joris Chamblain, publie son premier ouvrage : Les Carnets de Cerise, à partir de 2012. La série rencontre un grand succès critique et remporte notamment le Prix Jeunesse lors du Festival international de la bande dessinée d'Angoulême en 2014.
+En février 2016, Aurélie Neyret refuse sa nomination dans l’ordre des Arts et des Lettres, comme trois autres auteures de bandes dessinées.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aur%C3%A9lie_Neyret</t>
+          <t>Aurélie_Neyret</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,26 +559,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bande dessinée
-Participations
-Contes et légendes des pays celtes en bande dessinées, Petit à petit, 2009.
-Michael Jackson en bandes dessinées[4], Petit à petit, 2009.
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Participations</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Contes et légendes des pays celtes en bande dessinées, Petit à petit, 2009.
+Michael Jackson en bandes dessinées, Petit à petit, 2009.
 Les Contes en bandes dessinées, Petit à petit, 2010.
-The Rolling Stones en bandes dessinées[5],[6], Petit à petit, 2010.
+The Rolling Stones en bandes dessinées Petit à petit, 2010.
 Les Filles de Soleil, Soleil.
-T.19 (2014), T.20 (2015), T.21 (2016), T.22 (2017), T.23 (2018), T.24 (2019).
-Albums
-Les Carnets de Cerise, scénario de Joris Chamblain, collection Métamorphose, Soleil :
-Le Zoo pétrifié, 2012 ;
-Le Livre d'Hector, 2013 ;
-Le Dernier des cinq trésors, 2014 ;
-La Déesse sans visage[7], 2016 ;
-Des premières neiges aux perséides[8], 2017.
-Hors Série : Les Carnets de Cerise et Valentin , 2018
-Lulu et Nelson[9], écriture Charlotte Girard et Jean-Marie Omont, Soleil :
-Cap sur l'Afrique, 2019;
-Le royaume des lions, 2020;
-La lionne blanche, 2022;</t>
+T.19 (2014), T.20 (2015), T.21 (2016), T.22 (2017), T.23 (2018), T.24 (2019).</t>
         </is>
       </c>
     </row>
@@ -574,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aur%C3%A9lie_Neyret</t>
+          <t>Aurélie_Neyret</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,19 +599,71 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Carnets de Cerise, scénario de Joris Chamblain, collection Métamorphose, Soleil :
+Le Zoo pétrifié, 2012 ;
+Le Livre d'Hector, 2013 ;
+Le Dernier des cinq trésors, 2014 ;
+La Déesse sans visage, 2016 ;
+Des premières neiges aux perséides, 2017.
+Hors Série : Les Carnets de Cerise et Valentin , 2018
+Lulu et Nelson, écriture Charlotte Girard et Jean-Marie Omont, Soleil :
+Cap sur l'Afrique, 2019;
+Le royaume des lions, 2020;
+La lionne blanche, 2022;</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aurélie_Neyret</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aur%C3%A9lie_Neyret</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Principaux prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sélection jeunesse du Festival d'Angoulême 2013 pour Les carnets de Cerise, tome 1 : Le Zoo pétrifié, scénarisé par Joris Chamblain
-Prix Jeunesse du festival d'Angoulême 2014[10] pour Les Carnets de Cerise, tome 2 : Le Livre d'Hector, scénarisé par Joris Chamblain
-Prix Livrentête 2014[11] Catégorie BD Junior, pour Les carnets de Cerise, tome 1 : Le Zoo pétrifié, scénarisé par Joris Chamblain
+Prix Jeunesse du festival d'Angoulême 2014 pour Les Carnets de Cerise, tome 2 : Le Livre d'Hector, scénarisé par Joris Chamblain
+Prix Livrentête 2014 Catégorie BD Junior, pour Les carnets de Cerise, tome 1 : Le Zoo pétrifié, scénarisé par Joris Chamblain
 Prix de l'Enseignement 41 pour le Jeune Public avec Les Carnets de Cerise, le livre d'Hector
- Prix Saint-Michel, Catégorie Humour-Jeunesse 2015[12] pour Les Carnets de Cerise, tome 3 : Le Dernier des cinq trésors, scénarisé par Joris Chamblain
-Prix Paille en Queue 2016[13] du Salon du Livre jeunesse de l'océan Indien, Catégorie 5e-4e pour Les Carnets de Cerise, tome 4 : La Déesse sans visage, scénario de Joris Chamblain.
-Invitée d'honneur du 43e festival de la bande dessinée de Chambéry[14].
-2020 : prix Ligue de l'enseignement 41 pour le jeune public, avec Charlotte Girard et Jean-Marie Omont pour Lulu et Nelson t. 1 Cap sur l'Afrique, Soleil[15].</t>
+ Prix Saint-Michel, Catégorie Humour-Jeunesse 2015 pour Les Carnets de Cerise, tome 3 : Le Dernier des cinq trésors, scénarisé par Joris Chamblain
+Prix Paille en Queue 2016 du Salon du Livre jeunesse de l'océan Indien, Catégorie 5e-4e pour Les Carnets de Cerise, tome 4 : La Déesse sans visage, scénario de Joris Chamblain.
+Invitée d'honneur du 43e festival de la bande dessinée de Chambéry.
+2020 : prix Ligue de l'enseignement 41 pour le jeune public, avec Charlotte Girard et Jean-Marie Omont pour Lulu et Nelson t. 1 Cap sur l'Afrique, Soleil.</t>
         </is>
       </c>
     </row>
